--- a/csvData/tickBalance.xlsx
+++ b/csvData/tickBalance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>datum;fullDepo;balance;equity;hozam;lots</t>
   </si>
@@ -64,7 +64,7 @@
     <t>2018.10.24 20:08;1056.40;1014.52;1014.52;13.20;0.10</t>
   </si>
   <si>
-    <t>2018.10.24 21:27;1056.40;1012.78;1012.78;11.46;0.10</t>
+    <t>2018.10.24 21:27;1056.40;1012.73;1012.73;11.41;0.10</t>
   </si>
   <si>
     <t>2018.10.24 21:27;1056.40;1010.99;1010.99;9.67;0.10</t>
@@ -73,7 +73,7 @@
     <t>2018.10.24 22:35;1056.40;1018.03;1018.03;16.71;0.10</t>
   </si>
   <si>
-    <t>2018.10.24 23:01;1056.40;1028.63;1028.63;27.31;0.10</t>
+    <t>2018.10.24 23:01;1056.40;1040.59;1040.59;39.27;0.10</t>
   </si>
   <si>
     <t>2018.10.24 23:01;1056.40;1051.19;1051.19;49.87;0.10</t>
@@ -94,13 +94,13 @@
     <t>2018.10.25 22:44;1056.40;1040.96;1040.96;39.64;0.70</t>
   </si>
   <si>
-    <t>2018.10.26 14:03;1056.40;1039.71;1039.71;38.39;0.10</t>
+    <t>2018.10.26 14:03;1056.40;1039.68;1039.68;38.36;0.10</t>
   </si>
   <si>
     <t>2018.10.26 14:03;1056.40;1038.43;1038.43;37.11;0.10</t>
   </si>
   <si>
-    <t>2018.10.26 18:01;1056.40;1036.43;1036.43;35.11;0.10</t>
+    <t>2018.10.26 18:01;1056.40;1036.40;1036.40;35.08;0.10</t>
   </si>
   <si>
     <t>2018.10.26 18:01;1056.40;1034.40;1034.40;33.08;0.10</t>
@@ -118,7 +118,7 @@
     <t>2018.10.29 16:48;1056.40;1028.00;1028.00;26.68;0.30</t>
   </si>
   <si>
-    <t>2018.10.29 19:02;1056.40;1029.11;1029.11;27.79;0.10</t>
+    <t>2018.10.29 19:02;1056.40;1029.26;1029.26;27.94;0.10</t>
   </si>
   <si>
     <t>2018.10.29 19:02;1056.40;1030.37;1030.37;29.05;0.10</t>
@@ -142,10 +142,10 @@
     <t>2018.10.31 04:35;1056.24;1030.06;1030.06;28.90;0.30</t>
   </si>
   <si>
-    <t>2018.10.31 11:42;1056.24;1036.46;1036.46;35.30;0.60</t>
-  </si>
-  <si>
-    <t>2018.10.31 11:42;1056.24;1038.75;1038.75;37.59;0.30</t>
+    <t>2018.10.31 11:42;1056.24;1032.35;1032.35;31.19;0.30</t>
+  </si>
+  <si>
+    <t>2018.10.31 11:42;1056.24;1038.75;1038.75;37.59;0.60</t>
   </si>
   <si>
     <t>2018.10.31 15:13;1056.24;1039.38;1039.38;38.22;0.10</t>
@@ -173,105 +173,6 @@
   </si>
   <si>
     <t>2018.11.02 10:57;1056.24;1013.39;1013.39;29.88;0.70</t>
-  </si>
-  <si>
-    <t>2018.11.07 14:59;1056.24;1010.66;1010.66;27.15;0.30</t>
-  </si>
-  <si>
-    <t>2018.11.07 20:47;1056.24;1008.93;1008.93;25.42;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.07 20:47;1056.24;1007.22;1007.22;23.71;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.07 20:53;1056.24;1007.19;1007.19;23.68;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.07 20:53;1056.24;1007.18;1007.18;23.67;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.08 11:40;1056.24;1003.91;1003.91;20.40;0.50</t>
-  </si>
-  <si>
-    <t>2018.11.12 18:14;1056.24;1011.09;1011.09;27.58;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.12 19:09;1056.24;1014.16;1014.16;30.65;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.14 16:53;1742.21;1700.13;1700.13;30.65;</t>
-  </si>
-  <si>
-    <t>2018.11.14 18:21;1742.21;1693.06;1693.06;30.65;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.14 20:01;1742.21;1689.38;1689.38;26.97;0.20</t>
-  </si>
-  <si>
-    <t>2018.11.14 20:01;1742.21;1685.65;1685.65;23.24;0.20</t>
-  </si>
-  <si>
-    <t>2018.11.14 21:15;1742.21;1683.55;1683.55;21.14;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.14 21:15;1742.21;1681.49;1681.49;19.08;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.15 17:02;1742.21;1679.77;1679.77;17.36;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.15 17:02;1742.21;1678.05;1678.05;15.64;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.19 20:20;1742.21;1679.22;1679.22;16.81;0.50</t>
-  </si>
-  <si>
-    <t>2018.11.20 16:39;1742.21;1679.88;1679.88;17.47;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.20 16:39;1742.21;1680.59;1680.59;18.18;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.27 18:04;1742.21;1680.67;1680.67;18.18;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.28 18:46;1742.21;1681.15;1681.15;18.18;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.29 01:00;1742.21;1681.21;1681.21;18.24;0.50</t>
-  </si>
-  <si>
-    <t>2018.11.29 01:00;1742.21;1684.52;1684.52;21.55;0.50</t>
-  </si>
-  <si>
-    <t>2018.11.29 07:03;1742.54;1684.85;1684.85;21.55;</t>
-  </si>
-  <si>
-    <t>2018.11.29 07:12;1742.87;1685.18;1685.18;21.55;</t>
-  </si>
-  <si>
-    <t>2018.11.29 22:17;1742.87;1681.64;1681.64;18.01;0.20</t>
-  </si>
-  <si>
-    <t>2018.11.29 22:17;1742.87;1678.10;1678.10;14.47;0.20</t>
-  </si>
-  <si>
-    <t>2018.11.30 19:34;1742.87;1676.35;1676.35;12.72;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.30 19:34;1742.87;1674.62;1674.62;10.99;0.10</t>
-  </si>
-  <si>
-    <t>2018.11.30 22:17;1742.87;1671.59;1671.59;10.99;0.10</t>
-  </si>
-  <si>
-    <t>2018.12.03 01:00;1742.87;1684.64;1684.64;24.04;0.10</t>
-  </si>
-  <si>
-    <t>2018.12.03 13:31;1742.87;1689.22;1689.22;24.04;0.10</t>
-  </si>
-  <si>
-    <t>2018.12.03 13:47;1742.87;1707.16;1707.16;41.98;0.10</t>
   </si>
 </sst>
 </file>
@@ -629,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B86"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1056,270 +957,6 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54" s="1">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="1">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1">
-        <v>58</v>
-      </c>
-      <c r="B60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1">
-        <v>59</v>
-      </c>
-      <c r="B61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1">
-        <v>60</v>
-      </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1">
-        <v>61</v>
-      </c>
-      <c r="B63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1">
-        <v>62</v>
-      </c>
-      <c r="B64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1">
-        <v>63</v>
-      </c>
-      <c r="B65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1">
-        <v>64</v>
-      </c>
-      <c r="B66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1">
-        <v>65</v>
-      </c>
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1">
-        <v>66</v>
-      </c>
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="1">
-        <v>68</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="1">
-        <v>69</v>
-      </c>
-      <c r="B71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="1">
-        <v>70</v>
-      </c>
-      <c r="B72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="1">
-        <v>71</v>
-      </c>
-      <c r="B73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="1">
-        <v>72</v>
-      </c>
-      <c r="B74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="1">
-        <v>73</v>
-      </c>
-      <c r="B75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="1">
-        <v>74</v>
-      </c>
-      <c r="B76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="1">
-        <v>75</v>
-      </c>
-      <c r="B77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="1">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="1">
-        <v>77</v>
-      </c>
-      <c r="B79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="1">
-        <v>78</v>
-      </c>
-      <c r="B80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="1">
-        <v>79</v>
-      </c>
-      <c r="B81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="1">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="1">
-        <v>81</v>
-      </c>
-      <c r="B83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="1">
-        <v>82</v>
-      </c>
-      <c r="B84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="1">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="1">
-        <v>84</v>
-      </c>
-      <c r="B86" t="s">
-        <v>85</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
